--- a/Mejores_estrategias.xlsx
+++ b/Mejores_estrategias.xlsx
@@ -467,110 +467,110 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
       <c r="D3" t="n">
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.75</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.75</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -579,18 +579,18 @@
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -599,41 +599,41 @@
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
@@ -642,27 +642,27 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.611111111111111</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.55</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Mejores_estrategias.xlsx
+++ b/Mejores_estrategias.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -490,170 +490,170 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Mejores_estrategias.xlsx
+++ b/Mejores_estrategias.xlsx
@@ -507,7 +507,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>8</v>
@@ -650,19 +650,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
     </row>
   </sheetData>
